--- a/results_temp/results.xlsx
+++ b/results_temp/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>repeat</t>
   </si>
@@ -239,18 +239,50 @@
   </si>
   <si>
     <t>NON-STATIONARY CASES</t>
+  </si>
+  <si>
+    <t>Voter</t>
+  </si>
+  <si>
+    <t>c=1.0</t>
+  </si>
+  <si>
+    <t>c2=0.77</t>
+  </si>
+  <si>
+    <t>POKER</t>
+  </si>
+  <si>
+    <t>page-hinkley</t>
+  </si>
+  <si>
+    <t>resetSingle</t>
+  </si>
+  <si>
+    <t>CP_thr=43</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,6 +321,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,20 +350,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BG11"/>
+  <dimension ref="A2:BG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,168 +702,168 @@
       <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3">
-        <f>MATCH(MAX(S8:S29),S8:S11,0)</f>
+      <c r="S3" t="e">
+        <f>MATCH(MAX(S8:S28),S8:S11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T3" t="e">
+        <f>MATCH(MIN(T8:T28),T8:T11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U3" t="e">
+        <f>MATCH(MAX(U8:U28),U8:U11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="e">
+        <f>MATCH(MAX(V8:V28),V8:V11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W3" s="6">
+        <f>MATCH(MAX(W8:W28),W8:W11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="X3" s="6" t="e">
+        <f>MATCH(MAX(X8:X28),X8:X11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>MATCH(MAX(Y8:Y28),Y8:Y11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6" t="e">
+        <f>MATCH(MAX(Z8:Z28),Z8:Z11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" s="6" t="e">
+        <f>MATCH(MAX(AA8:AA28),AA8:AA11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>MATCH(MAX(AB8:AB28),AB8:AB11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>MATCH(MAX(AC8:AC28),AC8:AC11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AD3" s="6">
+        <f>MATCH(MAX(AD8:AD28),AD8:AD11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE3" s="6">
+        <f>MATCH(MAX(AE8:AE28),AE8:AE11,0)</f>
         <v>1</v>
       </c>
-      <c r="T3">
-        <f>MATCH(MIN(T8:T29),T8:T11,0)</f>
+      <c r="AF3" s="6">
+        <f>MATCH(MAX(AF8:AF28),AF8:AF11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <f>MATCH(MAX(AG8:AG28),AG8:AG11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <f>MATCH(MAX(AH8:AH28),AH8:AH11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI3" t="e">
+        <f>MATCH(MAX(AI8:AI28),AI8:AI11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ3">
+        <f>MATCH(MAX(AJ8:AJ28),AJ8:AJ11,0)</f>
         <v>1</v>
       </c>
-      <c r="U3">
-        <f>MATCH(MAX(U8:U29),U8:U11,0)</f>
+      <c r="AK3" t="e">
+        <f>MATCH(MAX(AK8:AK28),AK8:AK11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL3" t="e">
+        <f>MATCH(MAX(AL8:AL28),AL8:AL11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM3">
+        <f>MATCH(MAX(AM8:AM28),AM8:AM11,0)</f>
         <v>1</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:BG3" si="0">MATCH(MAX(V8:V29),V8:V11,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <f t="shared" si="0"/>
+      <c r="AN3" t="e">
+        <f>MATCH(MAX(AN8:AN28),AN8:AN11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO3" t="e">
+        <f>MATCH(MAX(AO8:AO28),AO8:AO11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP3" t="e">
+        <f>MATCH(MAX(AP8:AP28),AP8:AP11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ3" t="e">
+        <f>MATCH(MAX(AQ8:AQ28),AQ8:AQ11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR3" t="e">
+        <f>MATCH(MAX(AR8:AR28),AR8:AR11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS3" t="e">
+        <f>MATCH(MAX(AS8:AS28),AS8:AS11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT3" t="e">
+        <f>MATCH(MAX(AT8:AT28),AT8:AT11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU3" t="e">
+        <f>MATCH(MAX(AU8:AU28),AU8:AU11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV3" t="e">
+        <f>MATCH(MAX(AV8:AV28),AV8:AV11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW3">
+        <f>MATCH(MAX(AW8:AW28),AW8:AW11,0)</f>
         <v>3</v>
       </c>
-      <c r="X3" s="6">
-        <f t="shared" si="0"/>
+      <c r="AX3" t="e">
+        <f>MATCH(MAX(AX8:AX28),AX8:AX11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY3" t="e">
+        <f>MATCH(MAX(AY8:AY28),AY8:AY11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ3">
+        <f>MATCH(MAX(AZ8:AZ28),AZ8:AZ11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BA3" t="e">
+        <f>MATCH(MAX(BA8:BA28),BA8:BA11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB3" t="e">
+        <f>MATCH(MAX(BB8:BB28),BB8:BB11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC3" t="e">
+        <f>MATCH(MAX(BC8:BC28),BC8:BC11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD3">
+        <f>MATCH(MAX(BD8:BD28),BD8:BD11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE3">
+        <f>MATCH(MAX(BE8:BE28),BE8:BE11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF3">
+        <f>MATCH(MAX(BF8:BF28),BF8:BF11,0)</f>
         <v>2</v>
       </c>
-      <c r="Y3" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z3" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AB3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AC3" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AE3" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF3" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="BG3">
-        <f t="shared" si="0"/>
+        <f>MATCH(MAX(BG8:BG28),BG8:BG11,0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1149,7 +1191,7 @@
       </c>
       <c r="J8" s="4">
         <f>COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K8" s="7">
         <f>AVERAGE(W8:AF8)</f>
@@ -1165,7 +1207,7 @@
       </c>
       <c r="N8" s="4">
         <f>COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A8,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7">
         <f>(SUM(AB8:AF8)+SUM(AT8:BG8))/(COUNT(AB8:AF8)+COUNT(AT8:BG8))</f>
@@ -1173,7 +1215,7 @@
       </c>
       <c r="P8" s="4">
         <f>COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -1326,31 +1368,31 @@
         <v>47.98</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J11" si="1">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>9</v>
+        <f t="shared" ref="J9:J14" si="0">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>5</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:K11" si="2">AVERAGE(W9:AF9)</f>
+        <f t="shared" ref="K9:K14" si="1">AVERAGE(W9:AF9)</f>
         <v>53.259</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" ref="L9:L11" si="3">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>4</v>
+        <f t="shared" ref="L9:L14" si="2">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>2</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:M11" si="4">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
+        <f t="shared" ref="M9:M13" si="3">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
         <v>49.606666666666662</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:N11" si="5">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>6</v>
+        <f t="shared" ref="N9:N14" si="4">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>2</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" ref="O9:O11" si="6">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
+        <f t="shared" ref="O9:O14" si="5">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
         <v>46.445263157894736</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9:P11" si="7">COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <f t="shared" ref="P9:P14" si="6">COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
         <v>3</v>
       </c>
       <c r="R9">
@@ -1501,31 +1543,31 @@
         <v>48.76</v>
       </c>
       <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K10" s="7">
+        <v>56.414999999999999</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="2"/>
-        <v>56.414999999999999</v>
-      </c>
-      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
         <f t="shared" si="3"/>
+        <v>49.101666666666659</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M10" s="7">
-        <f t="shared" si="4"/>
-        <v>49.101666666666659</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="O10" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O10" s="7">
+        <v>48.433157894736844</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="6"/>
-        <v>48.433157894736844</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R10">
@@ -1679,32 +1721,32 @@
         <v>46.35</v>
       </c>
       <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="7">
+        <v>56.641999999999996</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="2"/>
-        <v>56.641999999999996</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="7">
+        <f>(SUM(W11:AA11)+SUM(AG11:AS11))/(COUNT(W11:AA11)+COUNT(AG11:AS11))</f>
+        <v>46.737777777777779</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>46.737777777777779</v>
-      </c>
-      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
         <f t="shared" si="5"/>
+        <v>45.972631578947372</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="6"/>
         <v>4</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="6"/>
-        <v>45.972631578947372</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="7"/>
-        <v>6</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -1831,6 +1873,528 @@
       </c>
       <c r="BG11">
         <v>41.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:I14" si="7">V12</f>
+        <v>53.29</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>52.338999999999999</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" ref="M12:M14" si="8">(SUM(W12:AA12)+SUM(AG12:AS12))/(COUNT(W12:AA12)+COUNT(AG12:AS12))</f>
+        <v>57.264444444444443</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="5"/>
+        <v>49.517368421052637</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>190</v>
+      </c>
+      <c r="S12" s="2">
+        <v>52594.2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2258.3000000000002</v>
+      </c>
+      <c r="U12" s="2">
+        <v>91.25</v>
+      </c>
+      <c r="V12" s="1">
+        <v>53.29</v>
+      </c>
+      <c r="W12" s="6">
+        <v>85.47</v>
+      </c>
+      <c r="X12" s="6">
+        <v>71.58</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>30.62</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>9.94</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>34.96</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>50.76</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>53.47</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>83.81</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>33.35</v>
+      </c>
+      <c r="AG12">
+        <v>97.4</v>
+      </c>
+      <c r="AH12">
+        <v>90.54</v>
+      </c>
+      <c r="AI12">
+        <v>50.37</v>
+      </c>
+      <c r="AJ12">
+        <v>99.14</v>
+      </c>
+      <c r="AK12">
+        <v>20.11</v>
+      </c>
+      <c r="AL12">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="AM12">
+        <v>65.02</v>
+      </c>
+      <c r="AN12">
+        <v>21.06</v>
+      </c>
+      <c r="AO12">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="AP12">
+        <v>15.89</v>
+      </c>
+      <c r="AQ12">
+        <v>51.15</v>
+      </c>
+      <c r="AR12">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="AS12">
+        <v>88.41</v>
+      </c>
+      <c r="AT12">
+        <v>27.22</v>
+      </c>
+      <c r="AU12">
+        <v>93.97</v>
+      </c>
+      <c r="AV12">
+        <v>41.38</v>
+      </c>
+      <c r="AW12">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="AX12">
+        <v>49.16</v>
+      </c>
+      <c r="AY12">
+        <v>41.82</v>
+      </c>
+      <c r="AZ12">
+        <v>60.05</v>
+      </c>
+      <c r="BA12">
+        <v>84.7</v>
+      </c>
+      <c r="BB12">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="BC12">
+        <v>24.2</v>
+      </c>
+      <c r="BD12">
+        <v>75.75</v>
+      </c>
+      <c r="BE12">
+        <v>68.44</v>
+      </c>
+      <c r="BF12">
+        <v>42.44</v>
+      </c>
+      <c r="BG12">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="7"/>
+        <v>43.07</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>30.475999999999999</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="8"/>
+        <v>58.977777777777774</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="5"/>
+        <v>27.997368421052634</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>170</v>
+      </c>
+      <c r="S13" s="2">
+        <v>51619.54</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3232.96</v>
+      </c>
+      <c r="U13" s="2">
+        <v>88.12</v>
+      </c>
+      <c r="V13" s="1">
+        <v>43.07</v>
+      </c>
+      <c r="W13" s="6">
+        <v>79.42</v>
+      </c>
+      <c r="X13" s="6">
+        <v>80.89</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>63.48</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>22.73</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>15.59</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>-13.91</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>-17.61</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>21.24</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>57.12</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="AG13">
+        <v>73.03</v>
+      </c>
+      <c r="AH13">
+        <v>78.09</v>
+      </c>
+      <c r="AI13">
+        <v>14.12</v>
+      </c>
+      <c r="AJ13">
+        <v>99</v>
+      </c>
+      <c r="AK13">
+        <v>42.24</v>
+      </c>
+      <c r="AL13">
+        <v>64.47</v>
+      </c>
+      <c r="AM13">
+        <v>56.19</v>
+      </c>
+      <c r="AN13">
+        <v>41.06</v>
+      </c>
+      <c r="AO13">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="AP13">
+        <v>21.15</v>
+      </c>
+      <c r="AQ13">
+        <v>50.59</v>
+      </c>
+      <c r="AR13">
+        <v>96.86</v>
+      </c>
+      <c r="AS13">
+        <v>93.43</v>
+      </c>
+      <c r="AT13">
+        <v>27.65</v>
+      </c>
+      <c r="AU13">
+        <v>93.48</v>
+      </c>
+      <c r="AV13">
+        <v>30.03</v>
+      </c>
+      <c r="AW13">
+        <v>12.6</v>
+      </c>
+      <c r="AX13">
+        <v>22.23</v>
+      </c>
+      <c r="AY13">
+        <v>35.49</v>
+      </c>
+      <c r="AZ13">
+        <v>-21.82</v>
+      </c>
+      <c r="BA13">
+        <v>59.94</v>
+      </c>
+      <c r="BB13">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="BC13">
+        <v>42.07</v>
+      </c>
+      <c r="BD13">
+        <v>69.63</v>
+      </c>
+      <c r="BE13">
+        <v>62.4</v>
+      </c>
+      <c r="BF13">
+        <v>5.37</v>
+      </c>
+      <c r="BG13">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="7"/>
+        <v>49.33</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>42.266000000000005</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="8"/>
+        <v>58.010000000000005</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="5"/>
+        <v>39.95473684210527</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="9">
+        <v>52719.95</v>
+      </c>
+      <c r="T14">
+        <v>3032.55</v>
+      </c>
+      <c r="U14">
+        <v>89.62</v>
+      </c>
+      <c r="V14" s="2">
+        <v>49.33</v>
+      </c>
+      <c r="W14" s="2">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="X14" s="2">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>64.37</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>21.11</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>10.71</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>48.71</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>42.07</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>57.83</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>72.88</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>77.56</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>13.08</v>
+      </c>
+      <c r="AJ14">
+        <v>99.02</v>
+      </c>
+      <c r="AK14">
+        <v>38.82</v>
+      </c>
+      <c r="AL14">
+        <v>73.19</v>
+      </c>
+      <c r="AM14">
+        <v>57.26</v>
+      </c>
+      <c r="AN14">
+        <v>53.78</v>
+      </c>
+      <c r="AO14">
+        <v>52.88</v>
+      </c>
+      <c r="AP14">
+        <v>12.61</v>
+      </c>
+      <c r="AQ14">
+        <v>69.28</v>
+      </c>
+      <c r="AR14">
+        <v>97.21</v>
+      </c>
+      <c r="AS14">
+        <v>89.81</v>
+      </c>
+      <c r="AT14">
+        <v>7</v>
+      </c>
+      <c r="AU14">
+        <v>92.89</v>
+      </c>
+      <c r="AV14">
+        <v>29.53</v>
+      </c>
+      <c r="AW14">
+        <v>30.04</v>
+      </c>
+      <c r="AX14">
+        <v>33.49</v>
+      </c>
+      <c r="AY14">
+        <v>27.51</v>
+      </c>
+      <c r="AZ14">
+        <v>28.54</v>
+      </c>
+      <c r="BA14">
+        <v>56.71</v>
+      </c>
+      <c r="BB14">
+        <v>37.33</v>
+      </c>
+      <c r="BC14">
+        <v>37.29</v>
+      </c>
+      <c r="BD14">
+        <v>64.78</v>
+      </c>
+      <c r="BE14">
+        <v>62.24</v>
+      </c>
+      <c r="BF14">
+        <v>42.6</v>
+      </c>
+      <c r="BG14">
+        <v>23.33</v>
       </c>
     </row>
   </sheetData>

--- a/results_temp/results.xlsx
+++ b/results_temp/results.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,159 +711,159 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="e">
-        <f>MATCH(MAX(U8:U28),U8:U11,0)</f>
+        <f t="shared" ref="U3:BG3" si="0">MATCH(MAX(U8:U28),U8:U11,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V3" t="e">
-        <f>MATCH(MAX(V8:V28),V8:V11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="W3" s="6">
-        <f>MATCH(MAX(W8:W28),W8:W11,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="X3" s="6" t="e">
-        <f>MATCH(MAX(X8:X28),X8:X11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="Y3" s="6">
-        <f>MATCH(MAX(Y8:Y28),Y8:Y11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z3" s="6" t="e">
-        <f>MATCH(MAX(Z8:Z28),Z8:Z11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="AA3" s="6" t="e">
-        <f>MATCH(MAX(AA8:AA28),AA8:AA11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="AB3" s="6">
-        <f>MATCH(MAX(AB8:AB28),AB8:AB11,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AC3" s="6">
-        <f>MATCH(MAX(AC8:AC28),AC8:AC11,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AD3" s="6">
-        <f>MATCH(MAX(AD8:AD28),AD8:AD11,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE3" s="6">
-        <f>MATCH(MAX(AE8:AE28),AE8:AE11,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AF3" s="6">
-        <f>MATCH(MAX(AF8:AF28),AF8:AF11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG3">
-        <f>MATCH(MAX(AG8:AG28),AG8:AG11,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AH3">
-        <f>MATCH(MAX(AH8:AH28),AH8:AH11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI3" t="e">
-        <f>MATCH(MAX(AI8:AI28),AI8:AI11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="AJ3">
-        <f>MATCH(MAX(AJ8:AJ28),AJ8:AJ11,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AK3" t="e">
-        <f>MATCH(MAX(AK8:AK28),AK8:AK11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="AL3" t="e">
-        <f>MATCH(MAX(AL8:AL28),AL8:AL11,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AM3">
-        <f>MATCH(MAX(AM8:AM28),AM8:AM11,0)</f>
+      <c r="AM3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AN3" t="e">
-        <f>MATCH(MAX(AN8:AN28),AN8:AN11,0)</f>
+      <c r="AP3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AO3" t="e">
-        <f>MATCH(MAX(AO8:AO28),AO8:AO11,0)</f>
+      <c r="AQ3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AP3" t="e">
-        <f>MATCH(MAX(AP8:AP28),AP8:AP11,0)</f>
+      <c r="AR3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AQ3" t="e">
-        <f>MATCH(MAX(AQ8:AQ28),AQ8:AQ11,0)</f>
+      <c r="AS3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AR3" t="e">
-        <f>MATCH(MAX(AR8:AR28),AR8:AR11,0)</f>
+      <c r="AT3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AS3" t="e">
-        <f>MATCH(MAX(AS8:AS28),AS8:AS11,0)</f>
+      <c r="AU3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AT3" t="e">
-        <f>MATCH(MAX(AT8:AT28),AT8:AT11,0)</f>
+      <c r="AV3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AU3" t="e">
-        <f>MATCH(MAX(AU8:AU28),AU8:AU11,0)</f>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BA3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AV3" t="e">
-        <f>MATCH(MAX(AV8:AV28),AV8:AV11,0)</f>
+      <c r="BB3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AW3">
-        <f>MATCH(MAX(AW8:AW28),AW8:AW11,0)</f>
-        <v>3</v>
-      </c>
-      <c r="AX3" t="e">
-        <f>MATCH(MAX(AX8:AX28),AX8:AX11,0)</f>
+      <c r="BC3" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AY3" t="e">
-        <f>MATCH(MAX(AY8:AY28),AY8:AY11,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ3">
-        <f>MATCH(MAX(AZ8:AZ28),AZ8:AZ11,0)</f>
-        <v>3</v>
-      </c>
-      <c r="BA3" t="e">
-        <f>MATCH(MAX(BA8:BA28),BA8:BA11,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB3" t="e">
-        <f>MATCH(MAX(BB8:BB28),BB8:BB11,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC3" t="e">
-        <f>MATCH(MAX(BC8:BC28),BC8:BC11,0)</f>
-        <v>#N/A</v>
-      </c>
       <c r="BD3">
-        <f>MATCH(MAX(BD8:BD28),BD8:BD11,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BE3">
-        <f>MATCH(MAX(BE8:BE28),BE8:BE11,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BF3">
-        <f>MATCH(MAX(BF8:BF28),BF8:BF11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BG3">
-        <f>MATCH(MAX(BG8:BG28),BG8:BG11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="J8" s="4">
         <f>COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="7">
         <f>AVERAGE(W8:AF8)</f>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="P8" s="4">
         <f>COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -1368,31 +1368,31 @@
         <v>47.98</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J14" si="0">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <f t="shared" ref="J9:J14" si="1">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
         <v>5</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:K14" si="1">AVERAGE(W9:AF9)</f>
+        <f t="shared" ref="K9:K14" si="2">AVERAGE(W9:AF9)</f>
         <v>53.259</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" ref="L9:L14" si="2">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <f t="shared" ref="L9:L14" si="3">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
         <v>2</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:M13" si="3">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
+        <f t="shared" ref="M9:M10" si="4">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
         <v>49.606666666666662</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:N14" si="4">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <f t="shared" ref="N9:N14" si="5">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
         <v>2</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" ref="O9:O14" si="5">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
+        <f t="shared" ref="O9:O14" si="6">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
         <v>46.445263157894736</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9:P14" si="6">COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <f t="shared" ref="P9:P14" si="7">COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
         <v>3</v>
       </c>
       <c r="R9">
@@ -1543,31 +1543,31 @@
         <v>48.76</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.414999999999999</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.101666666666659</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.433157894736844</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R10">
@@ -1721,15 +1721,15 @@
         <v>46.35</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.641999999999996</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M11" s="7">
@@ -1737,16 +1737,16 @@
         <v>46.737777777777779</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45.972631578947372</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -1886,162 +1886,162 @@
         <v>75</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:I14" si="7">V12</f>
-        <v>53.29</v>
+        <f t="shared" ref="I12:I14" si="8">V12</f>
+        <v>52.01</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="1"/>
-        <v>52.338999999999999</v>
+        <f t="shared" si="2"/>
+        <v>52.346000000000004</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M14" si="8">(SUM(W12:AA12)+SUM(AG12:AS12))/(COUNT(W12:AA12)+COUNT(AG12:AS12))</f>
-        <v>57.264444444444443</v>
+        <f t="shared" ref="M12:M14" si="9">(SUM(W12:AA12)+SUM(AG12:AS12))/(COUNT(W12:AA12)+COUNT(AG12:AS12))</f>
+        <v>55.12222222222222</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="5"/>
-        <v>49.517368421052637</v>
+        <f t="shared" si="6"/>
+        <v>49.054210526315785</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="S12" s="2">
-        <v>52594.2</v>
+        <v>52605.64</v>
       </c>
       <c r="T12" s="2">
-        <v>2258.3000000000002</v>
+        <v>2246.86</v>
       </c>
       <c r="U12" s="2">
-        <v>91.25</v>
+        <v>91.2</v>
       </c>
       <c r="V12" s="1">
-        <v>53.29</v>
+        <v>52.01</v>
       </c>
       <c r="W12" s="6">
-        <v>85.47</v>
+        <v>85.98</v>
       </c>
       <c r="X12" s="6">
-        <v>71.58</v>
+        <v>72.42</v>
       </c>
       <c r="Y12" s="6">
-        <v>69.430000000000007</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="Z12" s="6">
-        <v>30.62</v>
+        <v>29.75</v>
       </c>
       <c r="AA12" s="6">
-        <v>9.94</v>
+        <v>7.65</v>
       </c>
       <c r="AB12" s="6">
-        <v>34.96</v>
+        <v>33.92</v>
       </c>
       <c r="AC12" s="6">
-        <v>50.76</v>
+        <v>52.24</v>
       </c>
       <c r="AD12" s="6">
-        <v>53.47</v>
+        <v>54.68</v>
       </c>
       <c r="AE12" s="6">
-        <v>83.81</v>
+        <v>82.36</v>
       </c>
       <c r="AF12" s="6">
-        <v>33.35</v>
+        <v>34.36</v>
       </c>
       <c r="AG12">
-        <v>97.4</v>
+        <v>97.31</v>
       </c>
       <c r="AH12">
-        <v>90.54</v>
+        <v>90.85</v>
       </c>
       <c r="AI12">
-        <v>50.37</v>
+        <v>27.66</v>
       </c>
       <c r="AJ12">
-        <v>99.14</v>
+        <v>99.15</v>
       </c>
       <c r="AK12">
-        <v>20.11</v>
+        <v>15.06</v>
       </c>
       <c r="AL12">
-        <v>17.739999999999998</v>
+        <v>12.44</v>
       </c>
       <c r="AM12">
-        <v>65.02</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="AN12">
-        <v>21.06</v>
+        <v>22.26</v>
       </c>
       <c r="AO12">
-        <v>71.209999999999994</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="AP12">
-        <v>15.89</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="AQ12">
-        <v>51.15</v>
+        <v>47.44</v>
       </c>
       <c r="AR12">
-        <v>75.680000000000007</v>
+        <v>75.569999999999993</v>
       </c>
       <c r="AS12">
-        <v>88.41</v>
+        <v>88.95</v>
       </c>
       <c r="AT12">
-        <v>27.22</v>
+        <v>23.49</v>
       </c>
       <c r="AU12">
-        <v>93.97</v>
+        <v>93.93</v>
       </c>
       <c r="AV12">
-        <v>41.38</v>
+        <v>40.56</v>
       </c>
       <c r="AW12">
-        <v>19.760000000000002</v>
+        <v>21.17</v>
       </c>
       <c r="AX12">
-        <v>49.16</v>
+        <v>46.82</v>
       </c>
       <c r="AY12">
-        <v>41.82</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="AZ12">
-        <v>60.05</v>
+        <v>58.03</v>
       </c>
       <c r="BA12">
-        <v>84.7</v>
+        <v>84.68</v>
       </c>
       <c r="BB12">
-        <v>17.260000000000002</v>
+        <v>13.18</v>
       </c>
       <c r="BC12">
-        <v>24.2</v>
+        <v>24.77</v>
       </c>
       <c r="BD12">
-        <v>75.75</v>
+        <v>76.55</v>
       </c>
       <c r="BE12">
-        <v>68.44</v>
+        <v>69.42</v>
       </c>
       <c r="BF12">
-        <v>42.44</v>
+        <v>41.58</v>
       </c>
       <c r="BG12">
-        <v>38.33</v>
+        <v>39.630000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -2061,162 +2061,162 @@
         <v>80</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="8"/>
+        <v>42.99</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>31.172999999999995</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="9"/>
+        <v>59.016111111111094</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="6"/>
+        <v>27.812105263157893</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="7"/>
-        <v>43.07</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="1"/>
-        <v>30.475999999999999</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <f t="shared" si="8"/>
-        <v>58.977777777777774</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="5"/>
-        <v>27.997368421052634</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="R13">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="S13" s="2">
-        <v>51619.54</v>
+        <v>51628.57</v>
       </c>
       <c r="T13" s="2">
-        <v>3232.96</v>
+        <v>3223.93</v>
       </c>
       <c r="U13" s="2">
-        <v>88.12</v>
+        <v>88.26</v>
       </c>
       <c r="V13" s="1">
-        <v>43.07</v>
+        <v>42.99</v>
       </c>
       <c r="W13" s="6">
-        <v>79.42</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="X13" s="6">
-        <v>80.89</v>
+        <v>80.05</v>
       </c>
       <c r="Y13" s="6">
-        <v>63.48</v>
+        <v>66.33</v>
       </c>
       <c r="Z13" s="6">
-        <v>22.73</v>
+        <v>23.17</v>
       </c>
       <c r="AA13" s="6">
-        <v>15.59</v>
+        <v>13.84</v>
       </c>
       <c r="AB13" s="6">
-        <v>-13.91</v>
+        <v>-11.88</v>
       </c>
       <c r="AC13" s="6">
-        <v>-17.61</v>
+        <v>-15.92</v>
       </c>
       <c r="AD13" s="6">
-        <v>21.24</v>
+        <v>22.5</v>
       </c>
       <c r="AE13" s="6">
-        <v>57.12</v>
+        <v>57.98</v>
       </c>
       <c r="AF13" s="6">
-        <v>-4.1900000000000004</v>
+        <v>-2.44</v>
       </c>
       <c r="AG13">
-        <v>73.03</v>
+        <v>72.84</v>
       </c>
       <c r="AH13">
-        <v>78.09</v>
+        <v>77.8</v>
       </c>
       <c r="AI13">
-        <v>14.12</v>
+        <v>2.4</v>
       </c>
       <c r="AJ13">
-        <v>99</v>
+        <v>98.98</v>
       </c>
       <c r="AK13">
-        <v>42.24</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="AL13">
-        <v>64.47</v>
+        <v>69.16</v>
       </c>
       <c r="AM13">
-        <v>56.19</v>
+        <v>57.39</v>
       </c>
       <c r="AN13">
-        <v>41.06</v>
+        <v>47.16</v>
       </c>
       <c r="AO13">
-        <v>69.260000000000005</v>
+        <v>61.76</v>
       </c>
       <c r="AP13">
-        <v>21.15</v>
+        <v>13.18</v>
       </c>
       <c r="AQ13">
-        <v>50.59</v>
+        <v>71.12</v>
       </c>
       <c r="AR13">
-        <v>96.86</v>
+        <v>97.17</v>
       </c>
       <c r="AS13">
-        <v>93.43</v>
+        <v>93.5</v>
       </c>
       <c r="AT13">
-        <v>27.65</v>
+        <v>29.18</v>
       </c>
       <c r="AU13">
-        <v>93.48</v>
+        <v>93.46</v>
       </c>
       <c r="AV13">
-        <v>30.03</v>
+        <v>31.23</v>
       </c>
       <c r="AW13">
-        <v>12.6</v>
+        <v>9.51</v>
       </c>
       <c r="AX13">
-        <v>22.23</v>
+        <v>20.03</v>
       </c>
       <c r="AY13">
-        <v>35.49</v>
+        <v>29.65</v>
       </c>
       <c r="AZ13">
-        <v>-21.82</v>
+        <v>-21.8</v>
       </c>
       <c r="BA13">
-        <v>59.94</v>
+        <v>60.05</v>
       </c>
       <c r="BB13">
-        <v>37.840000000000003</v>
+        <v>38.43</v>
       </c>
       <c r="BC13">
-        <v>42.07</v>
+        <v>38.54</v>
       </c>
       <c r="BD13">
-        <v>69.63</v>
+        <v>69.16</v>
       </c>
       <c r="BE13">
-        <v>62.4</v>
+        <v>62.98</v>
       </c>
       <c r="BF13">
-        <v>5.37</v>
+        <v>4.43</v>
       </c>
       <c r="BG13">
-        <v>12.39</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -2239,35 +2239,35 @@
         <v>64</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="8"/>
+        <v>49.33</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>42.266000000000005</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="9"/>
+        <v>58.010000000000005</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="6"/>
+        <v>39.95473684210527</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="7"/>
-        <v>49.33</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="1"/>
-        <v>42.266000000000005</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <f t="shared" si="8"/>
-        <v>58.010000000000005</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <f t="shared" si="5"/>
-        <v>39.95473684210527</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="10">
